--- a/biology/Médecine/Cardia_(anatomie)/Cardia_(anatomie).xlsx
+++ b/biology/Médecine/Cardia_(anatomie)/Cardia_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cardia (ou jonction gastro-œsophagienne) est l'entrée de l'estomac, les aliments y pénétrant après avoir parcouru l'œsophage. 
-Son nom vient du grec kardia, cœur. De là vient l'expression mal au cœur synonyme de nausée[1].
+Son nom vient du grec kardia, cœur. De là vient l'expression mal au cœur synonyme de nausée.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cardia constitue la zone de transition entre les muqueuses œsophagienne (malpighienne) et gastrique (cylindrique). C'est une zone dite « de haute pression » située entre le sphincter inférieur de l’œsophage et le diaphragme crural (cardia anatomique).
 </t>
@@ -543,7 +557,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le cardia est parfois mal constitué ou dysfonctionnel chez le nouveau-né qui régurgite alors facilement.
 Le reflux gastro-œsophagien (RGO) est le passage du contenu gastrique à travers le cardia, hors du cas d'effort de vomissement. Il existe un RGO physiologique, notamment en postprandial, cependant il peut être pathologique et les causes peuvent être une anomalie de la tonicité du sphincter œsophagien inférieur ou bien, une obésité ou des anomalies dans les systèmes anti-reflux du cardia.
